--- a/SP_Sklad/TempLate/OrderedOut.xlsx
+++ b/SP_Sklad/TempLate/OrderedOut.xlsx
@@ -393,6 +393,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -416,24 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,11 +805,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:K83"/>
+  <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -828,14 +826,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="24" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -845,12 +843,12 @@
       <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="17" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
@@ -878,36 +876,36 @@
         <v>12</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="35" t="e">
+      <c r="D5" s="27" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="e">
+      <c r="B6" s="27" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -916,12 +914,12 @@
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
@@ -943,13 +941,13 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="36" t="e">
+      <c r="C9" s="28" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="8" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -978,10 +976,10 @@
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="23" t="s">
         <v>0</v>
       </c>
@@ -990,11 +988,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1003,17 +1001,17 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="32" t="e">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="38" t="e">
         <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
@@ -1029,859 +1027,19 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/SP_Sklad/TempLate/OrderedOut.xlsx
+++ b/SP_Sklad/TempLate/OrderedOut.xlsx
@@ -12,14 +12,14 @@
   <definedNames>
     <definedName name="range1">Замовлення!#REF!</definedName>
     <definedName name="range2">#REF!</definedName>
-    <definedName name="WayBillItems">Замовлення!$A$9:$K$10</definedName>
+    <definedName name="WayBillItems">Замовлення!$A$9:$L$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>sum</t>
   </si>
@@ -58,15 +58,15 @@
   </si>
   <si>
     <t>Замовник</t>
+  </si>
+  <si>
+    <t>Примітка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -371,9 +371,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -384,15 +381,45 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -411,29 +438,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,62 +814,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:K13"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24" t="e">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="22" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="17" t="e">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="40" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -870,152 +884,166 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="27" t="e">
+      <c r="C5" s="17"/>
+      <c r="D5" s="36" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="e">
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="36" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="e">
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="28" t="e">
+      <c r="C9" s="37" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="8" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="21" t="e">
+      <c r="H9" s="41" t="e">
         <f>WayBillItems_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="I9" s="22" t="e">
+      <c r="I9" s="20" t="e">
+        <f>WayBillItems_Notes</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="20" t="e">
         <f>WayBillItems_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="J9" s="22" t="e">
+      <c r="K9" s="20" t="e">
         <f>WayBillItems_DISCOUNTPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="K9" s="21" t="e">
-        <f>H9*I9</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="20" t="e">
+        <f>H9*J9</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="23" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="L10" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="38" t="e">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="33" t="e">
         <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1026,20 +1054,22 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H10:I10"/>
+  <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/SP_Sklad/TempLate/OrderedOut.xlsx
+++ b/SP_Sklad/TempLate/OrderedOut.xlsx
@@ -8,18 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Замовлення" sheetId="1" r:id="rId1"/>
+    <sheet name="На відгрузку" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="range1">Замовлення!#REF!</definedName>
     <definedName name="range2">#REF!</definedName>
     <definedName name="WayBillItems">Замовлення!$A$9:$L$10</definedName>
+    <definedName name="WayBillItems2">'На відгрузку'!$A$7:$I$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>sum</t>
   </si>
@@ -67,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -139,8 +141,35 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="18"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -396,6 +431,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -441,8 +497,20 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,7 +885,7 @@
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -838,14 +906,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="22" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -856,17 +924,17 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="40" t="e">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="49" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -891,38 +959,38 @@
         <v>12</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="36" t="e">
+      <c r="D5" s="45" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36" t="e">
+      <c r="B6" s="45" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -932,12 +1000,12 @@
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
@@ -962,18 +1030,18 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="37" t="e">
+      <c r="C9" s="46" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="8" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="41" t="e">
+      <c r="H9" s="28" t="e">
         <f>WayBillItems_AMOUNT</f>
         <v>#NAME?</v>
       </c>
@@ -1001,11 +1069,11 @@
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="21" t="s">
         <v>0</v>
       </c>
@@ -1014,11 +1082,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1028,17 +1096,17 @@
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="33" t="e">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="42" t="e">
         <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="19"/>
       <c r="I12" s="23"/>
       <c r="J12" s="19"/>
@@ -1076,4 +1144,196 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="22" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="18"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="54" t="e">
+        <f>WayBillList_NAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="e">
+        <f>WayBillItems2_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C7" s="50" t="e">
+        <f>WayBillItems2_MATNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="29" t="e">
+        <f>WayBillItems2_MSRNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" s="32" t="e">
+        <f>WayBillItems2_AMOUNT</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="33" t="e">
+        <f>WayBillItems2_Notes</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="42" t="e">
+        <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SP_Sklad/TempLate/OrderedOut.xlsx
+++ b/SP_Sklad/TempLate/OrderedOut.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="15" windowWidth="11760" windowHeight="6285"/>
@@ -14,14 +14,14 @@
     <definedName name="range1">Замовлення!#REF!</definedName>
     <definedName name="range2">#REF!</definedName>
     <definedName name="WayBillItems">Замовлення!$A$9:$L$10</definedName>
-    <definedName name="WayBillItems2">'На відгрузку'!$A$7:$I$8</definedName>
+    <definedName name="WayBillItems2">'На відгрузку'!$A$8:$I$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>sum</t>
   </si>
@@ -68,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -366,11 +366,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -452,6 +461,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -476,40 +506,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -669,7 +683,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -704,7 +717,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -880,15 +892,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
@@ -905,15 +917,15 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="22" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -923,25 +935,25 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="49" t="e">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="41" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="B4" s="18"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -954,58 +966,58 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16.5" customHeight="1">
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="45" t="e">
+      <c r="D5" s="37" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="45" t="e">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1">
+      <c r="B6" s="37" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-    </row>
-    <row r="7" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" ht="6" customHeight="1">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1025,18 +1037,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1">
       <c r="B9" s="8" t="e">
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="46" t="e">
+      <c r="C9" s="38" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="8" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1062,18 +1074,18 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="21" t="s">
         <v>0</v>
       </c>
@@ -1081,12 +1093,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1094,24 +1106,24 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="42" t="e">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="49" t="e">
         <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="19"/>
       <c r="I12" s="23"/>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1126,18 +1138,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1147,14 +1159,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
@@ -1168,37 +1178,37 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:9" ht="21" customHeight="1">
+      <c r="B1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="22" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
       <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="e">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="B3" s="18"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1208,130 +1218,146 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1">
       <c r="B4" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="54" t="e">
+      <c r="D4" s="53" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-    </row>
-    <row r="5" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="B5" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57" t="e">
+        <f>WayBillList_Notes</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" ht="8.25" customHeight="1">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" customHeight="1">
+      <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="7" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="e">
+    <row r="8" spans="1:9" ht="20.25" customHeight="1">
+      <c r="B8" s="29" t="e">
         <f>WayBillItems2_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="50" t="e">
+      <c r="C8" s="54" t="e">
         <f>WayBillItems2_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="29" t="e">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="29" t="e">
         <f>WayBillItems2_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="32" t="e">
+      <c r="H8" s="32" t="e">
         <f>WayBillItems2_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="33" t="e">
+      <c r="I8" s="33" t="e">
         <f>WayBillItems2_Notes</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="36" t="s">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="42" t="e">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="49" t="e">
         <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SP_Sklad/TempLate/OrderedOut.xlsx
+++ b/SP_Sklad/TempLate/OrderedOut.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="15" windowWidth="11760" windowHeight="6285"/>
@@ -16,7 +16,7 @@
     <definedName name="WayBillItems">Замовлення!$A$9:$L$10</definedName>
     <definedName name="WayBillItems2">'На відгрузку'!$A$8:$I$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -461,6 +461,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -482,29 +508,8 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -518,11 +523,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -896,9 +896,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:L10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -918,14 +916,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="22" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -936,17 +934,17 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="41" t="e">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="51" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -971,38 +969,38 @@
         <v>12</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="37" t="e">
+      <c r="D5" s="47" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B6" s="37" t="e">
+      <c r="B6" s="47" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12" ht="6" customHeight="1">
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1012,12 +1010,12 @@
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1042,13 +1040,13 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="38" t="e">
+      <c r="C9" s="48" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="8" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1081,11 +1079,11 @@
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="21" t="s">
         <v>0</v>
       </c>
@@ -1094,11 +1092,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1108,17 +1106,17 @@
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="49" t="e">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="44" t="e">
         <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="19"/>
       <c r="I12" s="23"/>
       <c r="J12" s="19"/>
@@ -1138,18 +1136,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1179,14 +1177,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="22" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -1194,17 +1192,17 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="e">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G2" s="52"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
@@ -1223,21 +1221,21 @@
         <v>12</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="53" t="e">
+      <c r="D4" s="56" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="57" t="e">
         <f>WayBillList_Notes</f>
         <v>#NAME?</v>
@@ -1249,8 +1247,8 @@
       <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:9" ht="8.25" customHeight="1">
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
@@ -1258,12 +1256,12 @@
       <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1279,13 +1277,13 @@
         <f>WayBillItems2_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="54" t="e">
+      <c r="C8" s="52" t="e">
         <f>WayBillItems2_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="29" t="e">
         <f>WayBillItems2_MSRNAME</f>
         <v>#NAME?</v>
@@ -1310,28 +1308,28 @@
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="49" t="e">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="44" t="e">
         <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
     </row>
@@ -1347,17 +1345,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="D5:I5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
